--- a/set-impl.xlsx
+++ b/set-impl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rick Helmus\Documents\Rproj\patRoon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733C23AC-FF14-4159-BD76-5A0F1A5E54BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9313BC47-4D2F-4DF6-B55D-6DC48F3BD634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="3000" windowHeight="15600" firstSheet="1" activeTab="5" xr2:uid="{4BFC050C-E8D8-4737-B5F4-2349612CBF83}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="6" xr2:uid="{4BFC050C-E8D8-4737-B5F4-2349612CBF83}"/>
   </bookViews>
   <sheets>
     <sheet name="fGroups" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="compounds" sheetId="4" r:id="rId4"/>
     <sheet name="components" sheetId="5" r:id="rId5"/>
     <sheet name="classes" sheetId="6" r:id="rId6"/>
+    <sheet name="ionize" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,8 +38,27 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={9F52DDFA-EB99-481C-B462-85BDFE2BFA73}</author>
+  </authors>
+  <commentList>
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{9F52DDFA-EB99-481C-B462-85BDFE2BFA73}">
+      <text>
+        <t>[Opmerkingenthread]
+U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
+Opmerking:
+    need to properly document that filters should be done for 'new' averaged peak lists coming from the various setObjects.
+Also: only average if &gt;1 setObject</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="130">
   <si>
     <t>[</t>
   </si>
@@ -100,9 +120,6 @@
     <t>groupFeatIndex</t>
   </si>
   <si>
-    <t>groupFeaturesScreening</t>
-  </si>
-  <si>
     <t>groupInfo</t>
   </si>
   <si>
@@ -208,18 +225,12 @@
     <t>updateFeatIndex</t>
   </si>
   <si>
-    <t>groupAlgorithm</t>
-  </si>
-  <si>
     <t>done</t>
   </si>
   <si>
     <t>ionize</t>
   </si>
   <si>
-    <t>maybe wait for autoID branch</t>
-  </si>
-  <si>
     <t>getEICsForFGroups</t>
   </si>
   <si>
@@ -323,13 +334,127 @@
   </si>
   <si>
     <t>origFGNames</t>
+  </si>
+  <si>
+    <t>used for</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>fGroups</t>
+  </si>
+  <si>
+    <t>MSPeakLists</t>
+  </si>
+  <si>
+    <t>formulas</t>
+  </si>
+  <si>
+    <t>compounds</t>
+  </si>
+  <si>
+    <t>components</t>
+  </si>
+  <si>
+    <t>ionize(fGroups) --&gt; get ionized features</t>
+  </si>
+  <si>
+    <t>export()</t>
+  </si>
+  <si>
+    <t>annotateSuspects</t>
+  </si>
+  <si>
+    <t>possibly: XCMS export</t>
+  </si>
+  <si>
+    <t>generate compounds, formulas</t>
+  </si>
+  <si>
+    <t>as.data.table(fGroups): obtain ionized m/zs</t>
+  </si>
+  <si>
+    <t>generate components, formulas, compounds, peaklists</t>
+  </si>
+  <si>
+    <t>changed in set slots vs setObject</t>
+  </si>
+  <si>
+    <t>not really applicable, ionized for as.data.table() and featureTable()</t>
+  </si>
+  <si>
+    <t>featureTable(): pass through to featuresSet</t>
+  </si>
+  <si>
+    <t>featureFormulas directly from setObjects, groupFormulas from consensus of setObject groupForms, regeneration always from setObjects, ionize removes set columns from groupFormulas</t>
+  </si>
+  <si>
+    <t>upon creation: setObjects themselves are updated for fragInfos, scRanges are calculated from all setObjects (bug: scRanges for fGroups not in consensus results are removed). compoundTable from consensus of setObjects, regenerated from setObjects, ionize removes set columns.</t>
+  </si>
+  <si>
+    <t>components are merged from the setObjects, which is merely adding to component list and componentInfo, all regenerated from setObjects</t>
+  </si>
+  <si>
+    <t>neutralized masses (used eg by featureTable, as.data.table, [[), no regeneration but subsetting after setObjects are subset/filtered</t>
+  </si>
+  <si>
+    <t>peakLists are directly from setObjects, avaeragedPeakLists from merging all averaged peaklists and tagging, data always re-generated from setObjects, ionize simply re-averages peakLists (bug, but no other way if &gt;1 set?)</t>
+  </si>
+  <si>
+    <t>&gt;1 sets necessary?</t>
+  </si>
+  <si>
+    <t>no, could've changed anaInfo</t>
+  </si>
+  <si>
+    <t>yes, eg multiple methods for the future</t>
+  </si>
+  <si>
+    <t>in case averaging would make sense (future?)</t>
+  </si>
+  <si>
+    <t>to retain consensus?</t>
+  </si>
+  <si>
+    <t>maybe later</t>
+  </si>
+  <si>
+    <t>unset requirements</t>
+  </si>
+  <si>
+    <t>ionize masses</t>
+  </si>
+  <si>
+    <t>averaging if &gt;1 set</t>
+  </si>
+  <si>
+    <t>retain consensus</t>
+  </si>
+  <si>
+    <t>nothing?</t>
+  </si>
+  <si>
+    <t>extra argument ionize=TRUE</t>
+  </si>
+  <si>
+    <t>use setObjects() as alternative</t>
+  </si>
+  <si>
+    <t>should be fine if sets=1</t>
+  </si>
+  <si>
+    <t>not relevant</t>
+  </si>
+  <si>
+    <t>propegate consensus to setObjects, although prohibits application of lower setThresholds later</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +467,20 @@
       <color rgb="FF000000"/>
       <name val="Fira Code"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -370,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -390,6 +529,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -405,6 +548,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Rick Helmus" id="{D4CD52AF-ADC2-40C3-BD16-77F174773A90}" userId="S::r.helmus@uva.nl::e2e31a91-8691-475d-b512-53a0b6adf7e2" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -702,50 +851,60 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C15" dT="2020-11-26T16:50:04.87" personId="{D4CD52AF-ADC2-40C3-BD16-77F174773A90}" id="{9F52DDFA-EB99-481C-B462-85BDFE2BFA73}">
+    <text>need to properly document that filters should be done for 'new' averaged peak lists coming from the various setObjects.
+Also: only average if &gt;1 setObject</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577E9359-1D15-4F03-932A-97D98DDBC554}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
-        <v>52</v>
-      </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -753,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -764,10 +923,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -775,10 +934,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -786,10 +945,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -797,10 +956,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -808,10 +967,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -819,7 +978,7 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -827,7 +986,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -835,7 +994,7 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -843,13 +1002,13 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -857,10 +1016,10 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -868,10 +1027,10 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -879,7 +1038,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -887,193 +1046,193 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
       <c r="G25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
-        <v>49</v>
+      <c r="C27" t="s">
+        <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="C28" t="s">
-        <v>49</v>
+      <c r="B28" t="s">
+        <v>48</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
-      <c r="B33" t="s">
-        <v>49</v>
+      <c r="D33" t="s">
+        <v>48</v>
       </c>
       <c r="G33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
-      <c r="D34" t="s">
-        <v>49</v>
+      <c r="B34" t="s">
+        <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1081,10 +1240,10 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1092,10 +1251,10 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1103,10 +1262,10 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1114,10 +1273,10 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1125,10 +1284,10 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1136,10 +1295,10 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1147,10 +1306,10 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1158,10 +1317,10 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1169,10 +1328,10 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1180,21 +1339,21 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>41</v>
       </c>
-      <c r="B45" t="s">
-        <v>49</v>
+      <c r="D45" t="s">
+        <v>48</v>
       </c>
       <c r="G45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1202,7 +1361,10 @@
         <v>42</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="G46" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1210,7 +1372,10 @@
         <v>43</v>
       </c>
       <c r="D47" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="G47" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1218,62 +1383,43 @@
         <v>44</v>
       </c>
       <c r="D48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="G48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>45</v>
       </c>
-      <c r="D49" t="s">
-        <v>49</v>
-      </c>
-      <c r="H49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>46</v>
       </c>
-      <c r="C50" t="s">
-        <v>49</v>
+      <c r="B50" t="s">
+        <v>48</v>
       </c>
       <c r="G50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" t="s">
-        <v>49</v>
-      </c>
-      <c r="G52" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" t="s">
-        <v>49</v>
-      </c>
-      <c r="G54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1283,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FAD30B-F556-40FF-A251-17FA26BFE1EF}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,30 +1445,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
-        <v>52</v>
-      </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1330,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1341,10 +1487,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1352,10 +1498,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1363,117 +1509,109 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>49</v>
+      <c r="B11" t="s">
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
+      <c r="A14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" t="s">
-        <v>49</v>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1499,33 +1637,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
-        <v>52</v>
-      </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1533,10 +1671,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1544,21 +1682,21 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1566,21 +1704,21 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1588,18 +1726,18 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1607,134 +1745,134 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1760,33 +1898,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
-        <v>52</v>
-      </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1794,10 +1932,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1805,43 +1943,43 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1849,21 +1987,21 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1871,15 +2009,15 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1887,186 +2025,186 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2090,33 +2228,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
-        <v>52</v>
-      </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2124,10 +2262,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2135,10 +2273,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2146,40 +2284,40 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2187,132 +2325,132 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2322,166 +2460,155 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1CF8BB5-F733-42C2-A946-991B96C9C1B3}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -2489,4 +2616,220 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47284A1-E3D3-4291-B762-59F21D20AF3D}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/set-impl.xlsx
+++ b/set-impl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rick Helmus\Documents\Rproj\patRoon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9313BC47-4D2F-4DF6-B55D-6DC48F3BD634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EB8E3D-00C4-4796-AB07-873639C36642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="6" xr2:uid="{4BFC050C-E8D8-4737-B5F4-2349612CBF83}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="6" xr2:uid="{4BFC050C-E8D8-4737-B5F4-2349612CBF83}"/>
   </bookViews>
   <sheets>
     <sheet name="fGroups" sheetId="1" r:id="rId1"/>
@@ -405,9 +405,6 @@
     <t>&gt;1 sets necessary?</t>
   </si>
   <si>
-    <t>no, could've changed anaInfo</t>
-  </si>
-  <si>
     <t>yes, eg multiple methods for the future</t>
   </si>
   <si>
@@ -448,13 +445,16 @@
   </si>
   <si>
     <t>propegate consensus to setObjects, although prohibits application of lower setThresholds later</t>
+  </si>
+  <si>
+    <t>no, not really need for combined features atm other than input for fGroups</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,12 +475,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2623,7 +2617,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2631,7 +2625,7 @@
     <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="32.85546875" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -2719,10 +2713,10 @@
         <v>114</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2732,14 +2726,14 @@
       <c r="B13" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C13" t="s">
-        <v>115</v>
+      <c r="C13" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2749,14 +2743,14 @@
       <c r="B14" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C14" t="s">
-        <v>116</v>
+      <c r="C14" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -2766,14 +2760,14 @@
       <c r="B15" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C15" t="s">
-        <v>117</v>
+      <c r="C15" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2783,14 +2777,14 @@
       <c r="B16" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C16" t="s">
-        <v>118</v>
+      <c r="C16" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -2800,14 +2794,14 @@
       <c r="B17" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C17" t="s">
-        <v>118</v>
+      <c r="C17" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2817,14 +2811,14 @@
       <c r="B18" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C18" t="s">
-        <v>119</v>
+      <c r="C18" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/set-impl.xlsx
+++ b/set-impl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rick Helmus\Documents\Rproj\patRoon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EB8E3D-00C4-4796-AB07-873639C36642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DB5A7A-CA77-4AFF-B6DA-60B7556CD28D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="6" xr2:uid="{4BFC050C-E8D8-4737-B5F4-2349612CBF83}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{4BFC050C-E8D8-4737-B5F4-2349612CBF83}"/>
   </bookViews>
   <sheets>
     <sheet name="fGroups" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="130">
   <si>
     <t>[</t>
   </si>
@@ -858,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577E9359-1D15-4F03-932A-97D98DDBC554}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,8 +971,11 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" t="s">
-        <v>52</v>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1034,6 +1037,9 @@
       <c r="D15" t="s">
         <v>48</v>
       </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1042,6 +1048,9 @@
       <c r="D16" t="s">
         <v>48</v>
       </c>
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1050,12 +1059,18 @@
       <c r="D17" t="s">
         <v>48</v>
       </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2616,8 +2631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47284A1-E3D3-4291-B762-59F21D20AF3D}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/set-impl.xlsx
+++ b/set-impl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rick Helmus\Documents\Rproj\patRoon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DB5A7A-CA77-4AFF-B6DA-60B7556CD28D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0A357F-9CDC-4A4F-8E33-50A90B42140A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{4BFC050C-E8D8-4737-B5F4-2349612CBF83}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="130">
   <si>
     <t>[</t>
   </si>
@@ -859,7 +859,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,12 +1106,18 @@
       <c r="E21" t="s">
         <v>48</v>
       </c>
+      <c r="G21" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
       <c r="E22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" t="s">
         <v>48</v>
       </c>
     </row>

--- a/set-impl.xlsx
+++ b/set-impl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rick Helmus\Documents\Rproj\patRoon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0A357F-9CDC-4A4F-8E33-50A90B42140A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA999D4-E29E-41E4-BB7A-D3E9B8C1CC0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{4BFC050C-E8D8-4737-B5F4-2349612CBF83}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{4BFC050C-E8D8-4737-B5F4-2349612CBF83}"/>
   </bookViews>
   <sheets>
     <sheet name="fGroups" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="131">
   <si>
     <t>[</t>
   </si>
@@ -448,6 +448,9 @@
   </si>
   <si>
     <t>no, not really need for combined features atm other than input for fGroups</t>
+  </si>
+  <si>
+    <t>plotGraph</t>
   </si>
 </sst>
 </file>
@@ -858,7 +861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577E9359-1D15-4F03-932A-97D98DDBC554}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -2230,15 +2233,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3C2673-B09C-47B8-945F-B7E3A2F3EE99}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2465,6 +2469,14 @@
         <v>48</v>
       </c>
       <c r="G19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" t="s">
         <v>48</v>
       </c>
     </row>
